--- a/data/test_inputs/weights/weights_0.xlsx
+++ b/data/test_inputs/weights/weights_0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikonagengast/Desktop/Paper_MA/Paper_Recycling_3/AHP_Monte_Carlo/data/complete_tree/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikonagengast/Desktop/Paper_MA/Paper_Recycling_3/AHP_Monte_Carlo/data/test_inputs/weights/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1E7E7C-1DCD-6147-B127-4252F5B71F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28B2A69-E976-2345-A1B6-10DA5F3E7F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11920" yWindow="500" windowWidth="21240" windowHeight="18440" xr2:uid="{B7E2081D-577B-684F-9742-E21C9EA83400}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="18440" windowHeight="18440" xr2:uid="{B7E2081D-577B-684F-9742-E21C9EA83400}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,16 +27,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
-    <t>B</t>
+    <t>ecological_parameters</t>
   </si>
   <si>
-    <t>C</t>
+    <t>economic_parameters</t>
   </si>
   <si>
-    <t>D</t>
+    <t>mechanical_parameters</t>
   </si>
   <si>
-    <t>E</t>
+    <t>process_parameters</t>
   </si>
 </sst>
 </file>
@@ -44,7 +44,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -78,7 +78,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -397,10 +397,17 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
